--- a/Mifos Automation Excels/Client/2692-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-REPAYon2ndFEB-RunPERon2ndFEB-DELETEAccCL-REPAYONTIME-RunPERon1stMAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2692-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-REPAYon2ndFEB-RunPERon2ndFEB-DELETEAccCL-REPAYONTIME-RunPERon1stMAR-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Head Office</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Accounting has been closed for this branch as of `2014-02-01`.</t>
-  </si>
-  <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
   </si>
 </sst>
 </file>
@@ -866,10 +863,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,14 +891,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -911,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1031,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
